--- a/Data/Milestone Skipped.xlsx
+++ b/Data/Milestone Skipped.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="12">
   <si>
     <t>P1</t>
   </si>
@@ -58,8 +58,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -87,9 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,247 +403,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>42078.166666666664</v>
-      </c>
-      <c r="C2" s="1">
-        <v>42093.23541666667</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>C2-B2</f>
-        <v>15.068750000005821</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42094.166666666664</v>
-      </c>
-      <c r="C3" s="1">
-        <v>42095.248993055553</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E5" si="0">C3-B3</f>
-        <v>1.0823263888887595</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="1">
-        <v>42099.166666666664</v>
-      </c>
-      <c r="C4" s="1">
-        <v>42101.812916666669</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>2.6462500000052387</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42066.208333333336</v>
-      </c>
-      <c r="C5" s="1">
-        <v>42078.763657407406</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>12.555324074070086</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3:E7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1">
-        <v>42050.208333333336</v>
-      </c>
-      <c r="C2" s="1">
-        <v>42061.790347222224</v>
-      </c>
-      <c r="D2" t="b">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <f>C2-B2</f>
-        <v>11.582013888888469</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>42061.208333333336</v>
-      </c>
-      <c r="C3" s="1">
-        <v>42063.654699074075</v>
-      </c>
-      <c r="D3" t="b">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E7" si="0">C3-B3</f>
-        <v>2.4463657407395658</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>42062.208333333336</v>
-      </c>
-      <c r="C4" s="1">
-        <v>42072.952835648146</v>
-      </c>
-      <c r="D4" t="b">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="0"/>
-        <v>10.744502314810234</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>42070.208333333336</v>
-      </c>
-      <c r="C5" s="1">
-        <v>42085.907847222225</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="0"/>
-        <v>15.69951388888876</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>42071.208333333336</v>
-      </c>
-      <c r="C6" s="1">
-        <v>42093.725474537037</v>
-      </c>
-      <c r="D6" t="b">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <f t="shared" si="0"/>
-        <v>22.517141203701613</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>42065.208333333336</v>
-      </c>
-      <c r="C7" s="1">
-        <v>42067.99628472222</v>
-      </c>
-      <c r="D7" t="b">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <f t="shared" si="0"/>
-        <v>2.7879513888838119</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -643,16 +415,232 @@
     <col min="2" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
+        <v>42078.166666666664</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42093.23541666667</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42094.166666666664</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42095.248993055553</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42099.166666666664</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42101.812916666669</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42066.208333333336</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42078.763657407406</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42050.208333333336</v>
+      </c>
+      <c r="C2" s="1">
+        <v>42061.790347222224</v>
+      </c>
+      <c r="D2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42061.208333333336</v>
+      </c>
+      <c r="C3" s="1">
+        <v>42063.654699074075</v>
+      </c>
+      <c r="D3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42062.208333333336</v>
+      </c>
+      <c r="C4" s="1">
+        <v>42072.952835648146</v>
+      </c>
+      <c r="D4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42070.208333333336</v>
+      </c>
+      <c r="C5" s="1">
+        <v>42085.907847222225</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42071.208333333336</v>
+      </c>
+      <c r="C6" s="1">
+        <v>42093.725474537037</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>42065.208333333336</v>
+      </c>
+      <c r="C7" s="1">
+        <v>42067.99628472222</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="19.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1">
         <v>42054.208333333336</v>
       </c>
       <c r="C2" s="1">
@@ -661,12 +649,8 @@
       <c r="D2" t="b">
         <v>1</v>
       </c>
-      <c r="E2">
-        <f>C2-B2</f>
-        <v>2.721192129625706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -679,12 +663,8 @@
       <c r="D3" t="b">
         <v>1</v>
       </c>
-      <c r="E3">
-        <f>C3-B3</f>
-        <v>2.6095601851848187</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -697,12 +677,8 @@
       <c r="D4" t="b">
         <v>1</v>
       </c>
-      <c r="E4">
-        <f>C4-B4</f>
-        <v>10.666157407409628</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -715,12 +691,8 @@
       <c r="D5" t="b">
         <v>1</v>
       </c>
-      <c r="E5">
-        <f>C5-B5</f>
-        <v>3.713761574072123</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -732,10 +704,6 @@
       </c>
       <c r="D6" t="b">
         <v>1</v>
-      </c>
-      <c r="E6">
-        <f>C6-B6</f>
-        <v>8.6661921296326909</v>
       </c>
     </row>
   </sheetData>
